--- a/_site/downloads/riboswitches_page/T-box.xlsx
+++ b/_site/downloads/riboswitches_page/T-box.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bf/Documents/1doctor/riboswitch_database/other_page_excel/Structure_page/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bf/Documents/blogs_all/Ribocentre-switch.github.io/downloads/riboswitches_page/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2674D58-FDA2-0345-AE43-9B2891B43E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2638ACF-83EC-0847-BA49-9E1BB74A6236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22760" yWindow="9180" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32760" yWindow="8500" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T-box" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>Riboswitch_name</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>T-box</t>
-  </si>
-  <si>
-    <t>Title</t>
   </si>
   <si>
     <t>Linker</t>
@@ -355,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -365,7 +362,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -712,305 +708,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11" style="2"/>
-    <col min="2" max="2" width="23.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2"/>
-    <col min="4" max="4" width="11" style="3"/>
-    <col min="5" max="5" width="48.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11" style="2"/>
-    <col min="9" max="9" width="11" style="4"/>
-    <col min="10" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="12" width="40.5" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="23.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2"/>
+    <col min="3" max="3" width="11" style="3"/>
+    <col min="4" max="4" width="48.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2"/>
+    <col min="8" max="8" width="11" style="4"/>
+    <col min="9" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="40.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2019</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="2">
         <v>2019</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2019</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3">
         <v>86</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="30">
+      <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3">
-        <v>87</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="30">
-      <c r="A7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>34</v>
+      <c r="B7" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2013</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2013</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1019,36 +993,33 @@
       <c r="F8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2013</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2013</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1057,218 +1028,200 @@
       <c r="F9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2">
         <v>2019</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="8" t="s">
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2019</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2">
+        <v>2014</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="K11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="I12" s="2">
+        <v>2014</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="K12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="H13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="2">
         <v>2014</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="8" t="s">
+      <c r="J13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2014</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2014</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C7">
+  <conditionalFormatting sqref="B1:B7">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
